--- a/PlantTransTwo/qPCR setup/Plate Setup and Master Mix PlantTrans2.xlsx
+++ b/PlantTransTwo/qPCR setup/Plate Setup and Master Mix PlantTrans2.xlsx
@@ -5,16 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipburnham/Dissertation/TemporalVariationCoinfection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipburnham/Documents/GitHub/Dissertation/PlantTransTwo/qPCR setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5-19-18 Run12" sheetId="1" r:id="rId1"/>
+    <sheet name="Master Mix" sheetId="2" r:id="rId2"/>
+    <sheet name="7-14-18 Run20" sheetId="3" r:id="rId3"/>
+    <sheet name="7-14-18 Run21" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Master Mix'!$A$1:$H$8</definedName>
+  </definedNames>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="59">
   <si>
     <t>target</t>
   </si>
@@ -235,12 +241,113 @@
   <si>
     <t>CBPV</t>
   </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Final konc</t>
+  </si>
+  <si>
+    <t>20 µl</t>
+  </si>
+  <si>
+    <t>10 µl</t>
+  </si>
+  <si>
+    <t>* 80%</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+  </si>
+  <si>
+    <t>iTaq Universal SYBR Green mix</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>Primer 1</t>
+  </si>
+  <si>
+    <t>10 μM</t>
+  </si>
+  <si>
+    <t>0.2 μM</t>
+  </si>
+  <si>
+    <t>Primer 2</t>
+  </si>
+  <si>
+    <t>iScript reverse transcriptase</t>
+  </si>
+  <si>
+    <t>Template RNA</t>
+  </si>
+  <si>
+    <t>BQCV</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>NUC</t>
+  </si>
+  <si>
+    <t>gBlock</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +419,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -333,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -356,14 +512,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -462,10 +748,62 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="14">
     <cellStyle name="20% - Accent1 2" xfId="1"/>
     <cellStyle name="Explanatory Text 2" xfId="2"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
@@ -744,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1326,4 +1664,1448 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41">
+        <v>12</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46">
+        <f>E2*$G$1</f>
+        <v>17.700000000000003</v>
+      </c>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44">
+        <v>5</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46">
+        <f>E3*$G$1</f>
+        <v>60</v>
+      </c>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46">
+        <f>E4*$G$1</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46">
+        <f>E5*$G$1</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="50">
+        <v>0.125</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="51">
+        <f>E6*$G$1</f>
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="52">
+        <f>G6*0.8</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44">
+        <v>3</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="46">
+        <f>E7</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="57"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H8"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14">
+        <v>21300000000</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="16">
+        <v>213000000</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="16">
+        <v>213000</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="16">
+        <v>213</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14">
+        <v>38500000000</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="16">
+        <v>38500000</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="16">
+        <v>385000</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="16">
+        <v>3850</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="20"/>
+      <c r="T4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="20"/>
+      <c r="V4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="20"/>
+      <c r="X4" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="14">
+        <v>16600000000</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="16">
+        <v>16600000</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="16">
+        <v>16600</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="16">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14">
+        <v>42500000000</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="16">
+        <v>42500000</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="16">
+        <v>42500</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="16">
+        <v>42.5</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="24">
+        <v>25100000000</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="25">
+        <v>25100000</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="25">
+        <v>25100</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="25">
+        <v>25.1</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="27">
+        <v>74300000000</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="28">
+        <v>74300000</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="28">
+        <v>74300</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" s="28">
+        <v>74.3</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="30">
+        <v>83200000000</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="16">
+        <v>83200000</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="16">
+        <v>83200</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" s="16">
+        <v>83.2</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="N12" s="35"/>
+    </row>
+    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C13" s="36"/>
+      <c r="L13" s="35"/>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C14" s="36"/>
+      <c r="L14" s="37"/>
+    </row>
+    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C15" s="36"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14">
+        <v>21300000000</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="16">
+        <v>213000000</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="16">
+        <v>213000</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="16">
+        <v>213</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14">
+        <v>38500000000</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="16">
+        <v>38500000</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="16">
+        <v>385000</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="16">
+        <v>3850</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="20"/>
+      <c r="T4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="20"/>
+      <c r="V4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="20"/>
+      <c r="X4" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="14">
+        <v>16600000000</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="16">
+        <v>16600000</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="16">
+        <v>16600</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="16">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14">
+        <v>42500000000</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="16">
+        <v>42500000</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="16">
+        <v>42500</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="16">
+        <v>42.5</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="24">
+        <v>25100000000</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="25">
+        <v>25100000</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="25">
+        <v>25100</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="25">
+        <v>25.1</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="27">
+        <v>74300000000</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="28">
+        <v>74300000</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="28">
+        <v>74300</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" s="28">
+        <v>74.3</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="30">
+        <v>83200000000</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="16">
+        <v>83200000</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="16">
+        <v>83200</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" s="16">
+        <v>83.2</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="N12" s="35"/>
+    </row>
+    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C13" s="36"/>
+      <c r="L13" s="35"/>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C14" s="36"/>
+      <c r="L14" s="37"/>
+    </row>
+    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C15" s="36"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
 </file>